--- a/fia/20210608/doc/Teste-de-Hipotese.xlsx
+++ b/fia/20210608/doc/Teste-de-Hipotese.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C2718-B5D1-4099-97E4-CA875E4FD71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3258599-1137-4328-A671-758960EF6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -22,18 +22,7 @@
     <sheet name="TH-Média_t" sheetId="26" r:id="rId7"/>
     <sheet name="TH-Prop_Z" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -311,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
   <si>
     <t>- Intervalo de Confiança -</t>
   </si>
@@ -320,9 +309,6 @@
   </si>
   <si>
     <t>Margem de erro (ME)=</t>
-  </si>
-  <si>
-    <t>z=</t>
   </si>
   <si>
     <t>[</t>
@@ -334,22 +320,7 @@
     <t>Legenda:</t>
   </si>
   <si>
-    <t>n=</t>
-  </si>
-  <si>
     <t>Inserir informações</t>
-  </si>
-  <si>
-    <t>x_barra=</t>
-  </si>
-  <si>
-    <t>t=</t>
-  </si>
-  <si>
-    <t>var(p)=</t>
-  </si>
-  <si>
-    <t>p=</t>
   </si>
   <si>
     <t>- Teste de Hipóteses -</t>
@@ -358,37 +329,13 @@
     <t>Teste de Hipótese: Bilateral</t>
   </si>
   <si>
-    <t>a=</t>
-  </si>
-  <si>
-    <t>Z=</t>
-  </si>
-  <si>
-    <t>p-valor=</t>
-  </si>
-  <si>
-    <t>s=</t>
-  </si>
-  <si>
     <t>Teste de Hipótese: Unilateral (H_a: p &gt; p_0)</t>
   </si>
   <si>
     <t>Teste de Hipótese: Unilateral (H_a: p &lt; p_0)</t>
   </si>
   <si>
-    <t>p_barra=</t>
-  </si>
-  <si>
-    <t>var(p_0)=</t>
-  </si>
-  <si>
-    <t>p_0=</t>
-  </si>
-  <si>
     <t>Intervalo de confiaça (g)</t>
-  </si>
-  <si>
-    <t>g=</t>
   </si>
   <si>
     <t>Teste de Hipótese: Unilateral (H_a: m &gt; m_0)</t>
@@ -397,19 +344,100 @@
     <t>Teste de Hipótese: Unilateral (H_a: m &lt; m_0)</t>
   </si>
   <si>
-    <t>z_a/2=</t>
+    <t>Probabilidade Acumulativa</t>
   </si>
   <si>
-    <t>z_a=</t>
+    <t>Confianca (%)</t>
   </si>
   <si>
-    <t>m=</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>t_a/2=</t>
+    <t>z</t>
   </si>
   <si>
-    <t>t_a=</t>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Nível Confiança</t>
+  </si>
+  <si>
+    <t>Gama</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Média População</t>
+  </si>
+  <si>
+    <t>x_barra</t>
+  </si>
+  <si>
+    <t>x barra</t>
+  </si>
+  <si>
+    <t>Média Amostra</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>var(p)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>z_a/2</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>p-valor</t>
+  </si>
+  <si>
+    <t>z_a</t>
+  </si>
+  <si>
+    <t>t_a</t>
+  </si>
+  <si>
+    <t>t_a/2</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>var(p_0)</t>
+  </si>
+  <si>
+    <t>p_0</t>
+  </si>
+  <si>
+    <t>p_barra</t>
   </si>
 </sst>
 </file>
@@ -424,7 +452,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -471,14 +499,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -504,19 +524,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF121416"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF121416"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AD9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -539,6 +627,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,56 +679,69 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -635,9 +754,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF78D9DB"/>
       <color rgb="FFDB7D74"/>
       <color rgb="FF434343"/>
-      <color rgb="FF78D9DB"/>
       <color rgb="FFBED9DB"/>
       <color rgb="FFAAD9DB"/>
       <color rgb="FF96D9DB"/>
@@ -1224,9 +1343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>143420</xdr:rowOff>
+      <xdr:rowOff>133895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1895,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33956</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291131</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -3175,7 +3294,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>291303</xdr:colOff>
+      <xdr:colOff>5553</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>145407</xdr:rowOff>
     </xdr:to>
@@ -3217,8 +3336,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>107307</xdr:rowOff>
     </xdr:to>
@@ -3717,8 +3836,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>135882</xdr:rowOff>
     </xdr:to>
@@ -4030,8 +4149,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291303</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1320003</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>145407</xdr:rowOff>
     </xdr:to>
@@ -4073,8 +4192,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>107307</xdr:rowOff>
     </xdr:to>
@@ -4116,8 +4235,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>135882</xdr:rowOff>
     </xdr:to>
@@ -6319,7 +6438,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1398933</xdr:colOff>
+      <xdr:colOff>1132233</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6361,8 +6480,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130452</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606702</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67472</xdr:rowOff>
     </xdr:to>
@@ -6781,33 +6900,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D13:K13"/>
+  <dimension ref="D13:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="23" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="12"/>
+    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="13" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="29" t="s">
+    <row r="13" spans="4:11" ht="26.25">
+      <c r="D13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="16" spans="4:11">
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="20">
+        <f>(0.5-((1-(G16/100))/2))+0.5</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
+      <c r="F18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="21">
+        <f>NORMSINV(G17)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="L19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" ht="18.75">
+      <c r="L20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="6:15" ht="18.75">
+      <c r="L21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="6:15" ht="18.75">
+      <c r="I22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="6:15" ht="18.75">
+      <c r="L23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D13:K13"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6815,15 +7026,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="9" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6832,94 +7047,94 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="28">
+    <row r="3" spans="2:14" ht="15.75">
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
         <v>0.95</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>4.3826127028829071E-2</v>
+        <v>8.3154229460980638</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
+    <row r="4" spans="2:14" ht="15.75">
+      <c r="B4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="33">
         <f>NORMSINV(C3+((1-C3)/2))</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <f>C7-F3</f>
+        <v>777.48457705390194</v>
+      </c>
+      <c r="K4" s="16">
+        <f>C7+F3</f>
+        <v>794.11542294609796</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="25">
-        <f>C7-F3</f>
-        <v>-4.3826127028829071E-2</v>
-      </c>
-      <c r="K4" s="25">
-        <f>C7+F3</f>
-        <v>4.3826127028829071E-2</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+    </row>
+    <row r="5" spans="2:14" ht="15.75">
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>8</v>
+    <row r="6" spans="2:14" ht="15.75">
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:14" ht="15.75">
+      <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>785.8</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+    <row r="8" spans="2:14">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6927,24 +7142,29 @@
     <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:N8"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="9" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6953,86 +7173,95 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:14" ht="15.75">
+      <c r="B3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="e">
+      <c r="F3" s="15">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="e">
+    <row r="4" spans="2:14" ht="15.75">
+      <c r="B4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="33">
         <f>_xlfn.T.INV(C3+((1-C3)/2),C5-1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>2.1314495455597742</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <f>C7-F3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <f>C7+F3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="25" t="e">
-        <f>C7-F3</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" s="25" t="e">
-        <f>C7+F3</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+    </row>
+    <row r="5" spans="2:14" ht="15.75">
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="N5" s="17" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="2:14" ht="15.75">
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3"/>
+    <row r="7" spans="2:14" ht="15.75">
+      <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="J7" s="18"/>
+    <row r="8" spans="2:14">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7049,13 +7278,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="9" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -7066,91 +7298,95 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:14" ht="15.75">
+      <c r="B3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="e">
+      <c r="F3" s="15" t="e">
         <f>C4*(SQRT(C6/C5))</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:14" ht="15.75">
+      <c r="B4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="33">
+        <f>NORMSINV(C3+((1-C3)/2))</f>
+        <v>0.27931903444745415</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="e">
-        <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="16" t="e">
+        <f>C7-F3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="16" t="e">
+        <f>C7+F3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="25" t="e">
-        <f>C7-F3</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" s="25" t="e">
-        <f>C7+F3</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+    </row>
+    <row r="5" spans="2:14" ht="15.75">
+      <c r="B5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>55</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="N5" s="17" t="s">
-        <v>8</v>
+    <row r="6" spans="2:14" ht="15.75">
+      <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="34" t="e">
+        <f>C7*(1-C7)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7">
-        <f>C7*(1-C7)</f>
-        <v>0</v>
-      </c>
+    <row r="7" spans="2:14" ht="15.75">
+      <c r="B7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+    <row r="8" spans="2:14">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7169,22 +7405,22 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="13" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+    <row r="13" spans="4:11" ht="26.25">
+      <c r="D13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7199,259 +7435,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+    <row r="1" spans="2:20">
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+    <row r="2" spans="2:20" s="6" customFormat="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="3"/>
+    <row r="3" spans="2:20" ht="15.75">
+      <c r="B3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="N3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="2:20" ht="15.75">
+      <c r="B4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="35">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="24" t="e">
+      <c r="E4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="38" t="e">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="G4" s="13"/>
+      <c r="H4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="24" t="e">
+      <c r="K4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="38" t="e">
         <f>(L3-I8)/(I7/(SQRT(I6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="N4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="35">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="24" t="e">
+      <c r="Q4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="38" t="e">
         <f>(R3-O8)/(O7/(SQRT(O6)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="e">
+    <row r="5" spans="2:20" ht="15.75">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="36" t="e">
         <f>NORMSINV(C4+((1-C4)/2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="e">
+      <c r="E5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="37" t="e">
         <f>IF(F4&gt;=0,2*(1-_xlfn.NORM.S.DIST(F4, TRUE)),2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="9" t="e">
+      <c r="G5" s="13"/>
+      <c r="H5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="33" t="e">
         <f>NORMSINV(1-I3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="12" t="e">
+      <c r="K5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="39" t="e">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="9" t="e">
+      <c r="N5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="33" t="e">
         <f>NORMSINV(O3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="11" t="e">
+      <c r="Q5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="37" t="e">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="16" t="s">
+    <row r="6" spans="2:20" ht="15.75">
+      <c r="B6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.75">
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="N7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="T7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="T7" s="17" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="2:20" ht="15.75">
+      <c r="B8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="N8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="N8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+    <row r="9" spans="2:20">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7468,259 +7706,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+    <row r="1" spans="2:20">
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+    <row r="2" spans="2:20" s="6" customFormat="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="3"/>
+    <row r="3" spans="2:20" ht="15.75">
+      <c r="B3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="N3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="2:20" ht="15.75">
+      <c r="B4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="35">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="24" t="e">
+      <c r="E4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="19" t="e">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="G4" s="13"/>
+      <c r="H4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="24" t="e">
+      <c r="K4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="38" t="e">
         <f>(L3-I8)/(I7/SQRT(I6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="N4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="35">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="24" t="e">
+      <c r="Q4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="38" t="e">
         <f>(R3-O8)/(O7/SQRT(O6))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="e">
+    <row r="5" spans="2:20" ht="15.75">
+      <c r="B5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="36" t="e">
         <f>_xlfn.T.INV(C4+((1-C4)/2),C6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="e">
+      <c r="E5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="37" t="e">
         <f>IF(F4&gt;=0,2*(1-_xlfn.T.DIST(F4,C6-1, TRUE)),2*(_xlfn.T.DIST(F4,C6-1, TRUE)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="9" t="e">
+      <c r="G5" s="13"/>
+      <c r="H5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="33" t="e">
         <f>_xlfn.T.INV(0.95,I6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="12" t="e">
+      <c r="K5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="39" t="e">
         <f>1-_xlfn.T.DIST(L4,I6-1, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="9" t="e">
+      <c r="N5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="33" t="e">
         <f>_xlfn.T.INV(O3,O6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="11" t="e">
+      <c r="Q5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="37" t="e">
         <f>_xlfn.T.DIST(R4,O6-1, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="16" t="s">
+    <row r="6" spans="2:20" ht="15.75">
+      <c r="B6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.75">
+      <c r="B7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="N7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="T7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="T7" s="17" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="2:20" ht="15.75">
+      <c r="B8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="N8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="N8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+    <row r="9" spans="2:20">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7739,268 +7979,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+    <row r="1" spans="2:20">
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+    <row r="2" spans="2:20" s="6" customFormat="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="3"/>
+    <row r="3" spans="2:20" ht="15.75">
+      <c r="B3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="N3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="2:20" ht="15.75">
+      <c r="B4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="35">
         <f>1-C3</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="24" t="e">
+        <v>-21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19" t="e">
         <f>(F3-C8)/(SQRT((C8*(1-C8)/C6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="24" t="e">
+      <c r="K4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="19" t="e">
         <f>(L3-I8)/(SQRT((I8*(1-I8)/I6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="N4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="35">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="19" t="e">
+      <c r="Q4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="41" t="e">
         <f>(R3-O8)/(SQRT((O8*(1-O8)/O6)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="e">
+    <row r="5" spans="2:20" ht="15.75">
+      <c r="B5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="36" t="e">
         <f>NORMSINV(C4+((1-C4)/2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="14" t="e">
+      <c r="E5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="40" t="e">
         <f>IF(F4&gt;=0, 2*(1-_xlfn.NORM.S.DIST(F4, TRUE)), 2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="36" t="e">
         <f>NORMSINV(1-I3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="11" t="e">
+      <c r="K5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="37" t="e">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="10" t="e">
+      <c r="N5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="36" t="e">
         <f>NORMSINV(O3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="14" t="e">
+      <c r="Q5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="40" t="e">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="T6" s="16" t="s">
-        <v>6</v>
+    <row r="6" spans="2:20" ht="15.75">
+      <c r="B6" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7">
+    <row r="7" spans="2:20" ht="15.75">
+      <c r="B7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="34">
         <f>C8*(1-C8)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
+        <v>-2</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="34">
         <f>I8*(1-I8)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="N7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="34">
         <f>O8*(1-O8)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>8</v>
+      <c r="T7" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="3"/>
+    <row r="8" spans="2:20" ht="15.75">
+      <c r="B8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="N8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+    <row r="9" spans="2:20">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/fia/20210608/doc/Teste-de-Hipotese.xlsx
+++ b/fia/20210608/doc/Teste-de-Hipotese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3258599-1137-4328-A671-758960EF6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CE066-4385-46F3-AA52-75406353BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
   <si>
     <t>- Intervalo de Confiança -</t>
   </si>
@@ -342,12 +342,6 @@
   </si>
   <si>
     <t>Teste de Hipótese: Unilateral (H_a: m &lt; m_0)</t>
-  </si>
-  <si>
-    <t>Probabilidade Acumulativa</t>
-  </si>
-  <si>
-    <t>Confianca (%)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -439,6 +433,33 @@
   <si>
     <t>p_barra</t>
   </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>Teste Unilateral</t>
+  </si>
+  <si>
+    <t>Teste Bilateral</t>
+  </si>
+  <si>
+    <t>Normal Padrão, quando o desvio-padrão populacional é conhecido</t>
+  </si>
+  <si>
+    <t>g.l.</t>
+  </si>
+  <si>
+    <t>Probabilidade Acumulativa a partir da confiança</t>
+  </si>
+  <si>
+    <t>Confiança (%)</t>
+  </si>
+  <si>
+    <t>Prob. Acumulativa</t>
+  </si>
+  <si>
+    <t>T-Student</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +473,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -598,6 +619,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121416"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -632,12 +672,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -645,6 +679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +719,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -708,8 +748,30 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,29 +781,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -784,8 +837,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16074</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358974</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>118397</xdr:rowOff>
     </xdr:to>
@@ -6900,15 +6953,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D13:O23"/>
+  <dimension ref="A4:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="12"/>
+    <col min="1" max="1" width="22.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -6917,105 +6974,256 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="13" spans="4:11" ht="26.25">
-      <c r="D13" s="22" t="s">
+    <row r="4" spans="1:13" ht="26.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
-    <row r="16" spans="4:11">
-      <c r="F16" s="12" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75">
+      <c r="A18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" ht="18">
+      <c r="A19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="12">
-        <v>95</v>
+      <c r="L19" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
-      <c r="F17" s="20" t="s">
+    <row r="20" spans="1:15" ht="18.75">
+      <c r="A20" s="47">
+        <v>99</v>
+      </c>
+      <c r="B20" s="48">
+        <f>(0.5-((1-(A20/100))/2))+0.5</f>
+        <v>0.995</v>
+      </c>
+      <c r="C20" s="50">
+        <f>NORMSINV(B20)</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.75">
+      <c r="L21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75">
+      <c r="I22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="20">
-        <f>(0.5-((1-(G16/100))/2))+0.5</f>
-        <v>0.97499999999999998</v>
-      </c>
+      <c r="L22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="27"/>
     </row>
-    <row r="18" spans="6:15">
-      <c r="F18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="21">
-        <f>NORMSINV(G17)</f>
+    <row r="23" spans="1:15" ht="18.75">
+      <c r="L23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75">
+      <c r="A24" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75">
+      <c r="A25" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="47">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="B26" s="48">
+        <f>1-A26</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C26" s="50">
+        <f>NORMSINV(A26)</f>
+        <v>1.2815515655446006</v>
+      </c>
+      <c r="D26" s="50">
+        <f>NORMSINV(1-B26/2)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="B27" s="48">
+        <f>1-A27</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C27" s="50">
+        <f>NORMSINV(A27)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="D27" s="50">
+        <f>NORMSINV(1-B27/2)</f>
         <v>1.9599639845400536</v>
       </c>
+      <c r="E27" s="49" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="6:15">
-      <c r="L19" s="12" t="s">
-        <v>20</v>
+    <row r="28" spans="1:15">
+      <c r="A28" s="47">
+        <v>0.99</v>
+      </c>
+      <c r="B28" s="48">
+        <f>1-A28</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="C28" s="50">
+        <f>NORMSINV(A28)</f>
+        <v>2.3263478740408408</v>
+      </c>
+      <c r="D28" s="50">
+        <f>NORMSINV(1-B28/2)</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:15" ht="18.75">
-      <c r="L20" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="32"/>
+    <row r="32" spans="1:15" ht="18.75">
+      <c r="A32" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="21" spans="6:15" ht="18.75">
-      <c r="L21" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="32"/>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="22" spans="6:15" ht="18.75">
-      <c r="I22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="32"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="B34" s="48">
+        <f>1-A34</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C34" s="47">
+        <v>30</v>
+      </c>
+      <c r="D34" s="48">
+        <f>C34-1</f>
+        <v>29</v>
+      </c>
+      <c r="E34" s="50">
+        <f>_xlfn.T.INV(1-B34/2,D34)</f>
+        <v>2.0452296421327034</v>
+      </c>
+      <c r="F34" s="50">
+        <f>_xlfn.T.INV(1-B34,D34)</f>
+        <v>1.6991270265334968</v>
+      </c>
     </row>
-    <row r="23" spans="6:15" ht="18.75">
-      <c r="L23" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" s="32"/>
+    <row r="35" spans="1:6">
+      <c r="B35" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="F4:M4"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7027,7 +7235,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7048,24 +7256,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="25" t="s">
-        <v>18</v>
+      <c r="B3" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="17">
         <v>0.95</v>
@@ -7075,14 +7283,14 @@
       </c>
       <c r="F3" s="19">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>8.3154229460980638</v>
+        <v>1108.723059479742</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
-      <c r="B4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28">
         <f>NORMSINV(C3+((1-C3)/2))</f>
         <v>1.9599639845400536</v>
       </c>
@@ -7091,11 +7299,11 @@
       </c>
       <c r="J4" s="16">
         <f>C7-F3</f>
-        <v>777.48457705390194</v>
+        <v>51191.276940520256</v>
       </c>
       <c r="K4" s="16">
         <f>C7+F3</f>
-        <v>794.11542294609796</v>
+        <v>53408.723059479744</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7105,8 +7313,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75">
-      <c r="B5" s="25" t="s">
-        <v>31</v>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -7116,19 +7324,19 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75">
-      <c r="B6" s="25" t="s">
-        <v>19</v>
+      <c r="B6" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
-      <c r="B7" s="25" t="s">
-        <v>28</v>
+      <c r="B7" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>785.8</v>
+        <v>52300</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7153,7 +7361,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7174,54 +7382,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="27" t="s">
-        <v>18</v>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="17">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="15">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>0</v>
+        <v>2009.9149825189024</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
-      <c r="B4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="28">
         <f>_xlfn.T.INV(C3+((1-C3)/2),C5-1)</f>
-        <v>2.1314495455597742</v>
+        <v>2.3646058617869441</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="16">
         <f>C7-F3</f>
-        <v>0</v>
+        <v>48790.085017481098</v>
       </c>
       <c r="K4" s="16">
         <f>C7+F3</f>
-        <v>0</v>
+        <v>52809.914982518902</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7231,27 +7439,31 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75">
-      <c r="B5" s="25" t="s">
-        <v>31</v>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75">
-      <c r="B6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8500</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
-      <c r="B7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50800</v>
+      </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:14">
@@ -7260,7 +7472,7 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7299,24 +7511,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
-      <c r="B3" s="27" t="s">
-        <v>18</v>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="17">
         <v>0.22</v>
@@ -7330,10 +7542,10 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
-      <c r="B4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28">
         <f>NORMSINV(C3+((1-C3)/2))</f>
         <v>0.27931903444745415</v>
       </c>
@@ -7356,8 +7568,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75">
-      <c r="B5" s="25" t="s">
-        <v>31</v>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>55</v>
@@ -7367,20 +7579,20 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75">
-      <c r="B6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="34" t="e">
+      <c r="B6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="29" t="e">
         <f>C7*(1-C7)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
-      <c r="B7" s="25" t="s">
-        <v>34</v>
+      <c r="B7" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7411,16 +7623,16 @@
   </cols>
   <sheetData>
     <row r="13" spans="4:11" ht="26.25">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7465,28 +7677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -7507,140 +7719,140 @@
       <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:20" ht="15.75">
-      <c r="B3" s="25" t="s">
-        <v>35</v>
+      <c r="B3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="25" t="s">
-        <v>28</v>
+      <c r="E3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="28" t="s">
-        <v>35</v>
+      <c r="H3" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="K3" s="25" t="s">
-        <v>28</v>
+      <c r="K3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="N3" s="31" t="s">
-        <v>35</v>
+      <c r="N3" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="Q3" s="25" t="s">
-        <v>28</v>
+      <c r="Q3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:20" ht="15.75">
-      <c r="B4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="30">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="38" t="e">
+      <c r="E4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="33" t="e">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="30">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="38" t="e">
+      <c r="K4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="33" t="e">
         <f>(L3-I8)/(I7/(SQRT(I6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="35">
+      <c r="N4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="30">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="38" t="e">
+      <c r="Q4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="33" t="e">
         <f>(R3-O8)/(O7/(SQRT(O6)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75">
-      <c r="B5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="36" t="e">
+      <c r="B5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="31" t="e">
         <f>NORMSINV(C4+((1-C4)/2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="37" t="e">
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="32" t="e">
         <f>IF(F4&gt;=0,2*(1-_xlfn.NORM.S.DIST(F4, TRUE)),2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="33" t="e">
+      <c r="H5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="28" t="e">
         <f>NORMSINV(1-I3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="39" t="e">
+      <c r="K5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="34" t="e">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="33" t="e">
+      <c r="N5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="28" t="e">
         <f>NORMSINV(O3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="37" t="e">
+      <c r="Q5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="32" t="e">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15.75">
-      <c r="B6" s="25" t="s">
-        <v>31</v>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="28" t="s">
-        <v>31</v>
+      <c r="H6" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="N6" s="31" t="s">
-        <v>31</v>
+      <c r="N6" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6"/>
@@ -7651,17 +7863,17 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="25" t="s">
-        <v>19</v>
+      <c r="B7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="25" t="s">
-        <v>19</v>
+      <c r="H7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="N7" s="31" t="s">
-        <v>19</v>
+      <c r="N7" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="O7" s="2"/>
       <c r="T7" s="10" t="s">
@@ -7669,17 +7881,17 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75">
-      <c r="B8" s="25" t="s">
-        <v>25</v>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="28" t="s">
-        <v>25</v>
+      <c r="H8" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="N8" s="31" t="s">
-        <v>25</v>
+      <c r="N8" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -7736,28 +7948,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -7778,140 +7990,140 @@
       <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:20" ht="15.75">
-      <c r="B3" s="31" t="s">
-        <v>35</v>
+      <c r="B3" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="25" t="s">
-        <v>28</v>
+      <c r="E3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="25" t="s">
-        <v>35</v>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="K3" s="25" t="s">
-        <v>28</v>
+      <c r="K3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="N3" s="25" t="s">
-        <v>35</v>
+      <c r="N3" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="Q3" s="25" t="s">
-        <v>28</v>
+      <c r="Q3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:20" ht="15.75">
-      <c r="B4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="30">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
+      <c r="E4" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="19" t="e">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="30">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="38" t="e">
+      <c r="K4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="33" t="e">
         <f>(L3-I8)/(I7/SQRT(I6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="35">
+      <c r="N4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="30">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="38" t="e">
+      <c r="Q4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="33" t="e">
         <f>(R3-O8)/(O7/SQRT(O6))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75">
-      <c r="B5" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="36" t="e">
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="31" t="e">
         <f>_xlfn.T.INV(C4+((1-C4)/2),C6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="37" t="e">
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="32" t="e">
         <f>IF(F4&gt;=0,2*(1-_xlfn.T.DIST(F4,C6-1, TRUE)),2*(_xlfn.T.DIST(F4,C6-1, TRUE)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="33" t="e">
+      <c r="H5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="28" t="e">
         <f>_xlfn.T.INV(0.95,I6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="39" t="e">
+      <c r="K5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="34" t="e">
         <f>1-_xlfn.T.DIST(L4,I6-1, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="33" t="e">
+      <c r="N5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="28" t="e">
         <f>_xlfn.T.INV(O3,O6-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="37" t="e">
+      <c r="Q5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="32" t="e">
         <f>_xlfn.T.DIST(R4,O6-1, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15.75">
-      <c r="B6" s="31" t="s">
-        <v>31</v>
+      <c r="B6" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="25" t="s">
-        <v>31</v>
+      <c r="H6" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="N6" s="25" t="s">
-        <v>31</v>
+      <c r="N6" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6"/>
@@ -7922,17 +8134,17 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="31" t="s">
-        <v>19</v>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="25" t="s">
-        <v>19</v>
+      <c r="H7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="N7" s="25" t="s">
-        <v>19</v>
+      <c r="N7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="O7" s="2"/>
       <c r="T7" s="10" t="s">
@@ -7940,17 +8152,17 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75">
-      <c r="B8" s="25" t="s">
-        <v>25</v>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="25" t="s">
-        <v>25</v>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="N8" s="25" t="s">
-        <v>25</v>
+      <c r="N8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -8009,28 +8221,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -8051,127 +8263,127 @@
       <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:20" ht="15.75">
-      <c r="B3" s="42" t="s">
-        <v>35</v>
+      <c r="B3" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>22</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>45</v>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="42" t="s">
-        <v>35</v>
+      <c r="H3" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="K3" s="42" t="s">
-        <v>45</v>
+      <c r="K3" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="N3" s="42" t="s">
-        <v>35</v>
+      <c r="N3" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="Q3" s="42" t="s">
-        <v>45</v>
+      <c r="Q3" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:20" ht="15.75">
-      <c r="B4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="30">
         <f>1-C3</f>
         <v>-21</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>37</v>
+      <c r="E4" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="19" t="e">
         <f>(F3-C8)/(SQRT((C8*(1-C8)/C6)))</f>
         <v>#NUM!</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="30">
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K4" s="43" t="s">
-        <v>37</v>
+      <c r="K4" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="L4" s="19" t="e">
         <f>(L3-I8)/(SQRT((I8*(1-I8)/I6)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="35">
+      <c r="N4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="30">
         <f>1-O3</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="41" t="e">
+      <c r="Q4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="36" t="e">
         <f>(R3-O8)/(SQRT((O8*(1-O8)/O6)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75">
-      <c r="B5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="36" t="e">
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="31" t="e">
         <f>NORMSINV(C4+((1-C4)/2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="40" t="e">
+      <c r="E5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="35" t="e">
         <f>IF(F4&gt;=0, 2*(1-_xlfn.NORM.S.DIST(F4, TRUE)), 2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
         <v>#NUM!</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="36" t="e">
+      <c r="H5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="31" t="e">
         <f>NORMSINV(1-I3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="37" t="e">
+      <c r="K5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="32" t="e">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="36" t="e">
+      <c r="N5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="31" t="e">
         <f>NORMSINV(O3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Q5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="40" t="e">
+      <c r="Q5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="35" t="e">
         <f>_xlfn.NORM.S.DIST(R4, TRUE)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15.75">
-      <c r="B6" s="42" t="s">
-        <v>31</v>
+      <c r="B6" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -8180,15 +8392,15 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="42" t="s">
-        <v>31</v>
+      <c r="H6" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="N6" s="42" t="s">
-        <v>31</v>
+      <c r="N6" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6"/>
@@ -8199,25 +8411,25 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="15.75">
-      <c r="B7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="B7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="29">
         <f>C8*(1-C8)</f>
         <v>-2</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="H7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="29">
         <f>I8*(1-I8)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="34">
+      <c r="N7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="29">
         <f>O8*(1-O8)</f>
         <v>0</v>
       </c>
@@ -8226,19 +8438,19 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75">
-      <c r="B8" s="42" t="s">
-        <v>44</v>
+      <c r="B8" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="42" t="s">
-        <v>44</v>
+      <c r="H8" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="N8" s="42" t="s">
-        <v>44</v>
+      <c r="N8" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="O8" s="2"/>
     </row>

--- a/fia/20210608/doc/Teste-de-Hipotese.xlsx
+++ b/fia/20210608/doc/Teste-de-Hipotese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CE066-4385-46F3-AA52-75406353BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4577302-0E3F-41B7-9E08-3E7EB4ACA248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="57">
   <si>
     <t>- Intervalo de Confiança -</t>
   </si>
@@ -416,13 +416,7 @@
     <t>z_a</t>
   </si>
   <si>
-    <t>t_a</t>
-  </si>
-  <si>
     <t>t_a/2</t>
-  </si>
-  <si>
-    <t>0.22</t>
   </si>
   <si>
     <t>var(p_0)</t>
@@ -460,18 +454,38 @@
   <si>
     <t>T-Student</t>
   </si>
+  <si>
+    <t>Teste Unilateral ou IC</t>
+  </si>
+  <si>
+    <t>Teste Bilateral ou IC</t>
+  </si>
+  <si>
+    <t>z_α/2</t>
+  </si>
+  <si>
+    <t>z_α</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t_α</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -719,7 +733,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -772,15 +786,6 @@
     <xf numFmtId="3" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -796,6 +801,19 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6955,8 +6973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6964,8 +6982,8 @@
     <col min="1" max="1" width="22.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="23" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -6978,16 +6996,16 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
@@ -6995,22 +7013,22 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="F17" s="51"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="18.75">
-      <c r="A18" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="51"/>
+      <c r="A18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="18">
-      <c r="A19" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="43" t="s">
+      <c r="A19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="12" t="s">
@@ -7018,16 +7036,16 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75">
-      <c r="A20" s="47">
-        <v>99</v>
-      </c>
-      <c r="B20" s="48">
+      <c r="A20" s="44">
+        <v>95</v>
+      </c>
+      <c r="B20" s="45">
         <f>(0.5-((1-(A20/100))/2))+0.5</f>
-        <v>0.995</v>
-      </c>
-      <c r="C20" s="50">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C20" s="47">
         <f>NORMSINV(B20)</f>
-        <v>2.5758293035488999</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>16</v>
@@ -7080,88 +7098,88 @@
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:15" ht="18.75">
-      <c r="A24" s="45" t="s">
-        <v>47</v>
+      <c r="A24" s="42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.75">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>46</v>
+      <c r="B25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="47">
+      <c r="A26" s="44">
         <f>0.9</f>
         <v>0.9</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="55">
         <f>1-A26</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="54">
         <f>NORMSINV(A26)</f>
         <v>1.2815515655446006</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="47">
         <f>NORMSINV(1-B26/2)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="47">
+      <c r="A27" s="44">
         <v>0.95</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="55">
         <f>1-A27</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <f>NORMSINV(A27)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="47">
         <f>NORMSINV(1-B27/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="47">
-        <v>0.99</v>
-      </c>
-      <c r="B28" s="48">
+      <c r="A28" s="44">
+        <v>0.97</v>
+      </c>
+      <c r="B28" s="55">
         <f>1-A28</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="C28" s="50">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="C28" s="54">
         <f>NORMSINV(A28)</f>
-        <v>2.3263478740408408</v>
-      </c>
-      <c r="D28" s="50">
+        <v>1.8807936081512504</v>
+      </c>
+      <c r="D28" s="47">
         <f>NORMSINV(1-B28/2)</f>
-        <v>2.5758293035488999</v>
-      </c>
-      <c r="E28" s="49" t="s">
+        <v>2.1700903775845601</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.75">
-      <c r="A32" s="45" t="s">
-        <v>52</v>
+      <c r="A32" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>14</v>
@@ -7171,47 +7189,47 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="43" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="47">
+      <c r="A34" s="44">
         <v>0.95</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="45">
         <f>1-A34</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C34" s="47">
-        <v>30</v>
-      </c>
-      <c r="D34" s="48">
+      <c r="C34" s="44">
+        <v>25</v>
+      </c>
+      <c r="D34" s="45">
         <f>C34-1</f>
-        <v>29</v>
-      </c>
-      <c r="E34" s="50">
+        <v>24</v>
+      </c>
+      <c r="E34" s="47">
         <f>_xlfn.T.INV(1-B34/2,D34)</f>
-        <v>2.0452296421327034</v>
-      </c>
-      <c r="F34" s="50">
+        <v>2.0638985616280254</v>
+      </c>
+      <c r="F34" s="54">
         <f>_xlfn.T.INV(1-B34,D34)</f>
-        <v>1.6991270265334968</v>
+        <v>1.7108820799094284</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7235,7 +7253,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7256,20 +7274,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
       <c r="B3" s="20" t="s">
@@ -7283,7 +7301,7 @@
       </c>
       <c r="F3" s="19">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>1108.723059479742</v>
+        <v>69.295191217483875</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
@@ -7299,11 +7317,11 @@
       </c>
       <c r="J4" s="16">
         <f>C7-F3</f>
-        <v>51191.276940520256</v>
+        <v>48530.704808782517</v>
       </c>
       <c r="K4" s="16">
         <f>C7+F3</f>
-        <v>53408.723059479744</v>
+        <v>48669.295191217483</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7317,7 +7335,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>6</v>
@@ -7328,7 +7346,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
@@ -7336,7 +7354,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>52300</v>
+        <v>48600</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7361,7 +7379,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7382,34 +7400,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
       <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="17">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="15">
         <f>C4*(C6/SQRT(C5))</f>
-        <v>2009.9149825189024</v>
+        <v>0.85259056648718945</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
@@ -7418,18 +7436,18 @@
       </c>
       <c r="C4" s="28">
         <f>_xlfn.T.INV(C3+((1-C3)/2),C5-1)</f>
-        <v>2.3646058617869441</v>
+        <v>2.0095752371292388</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="16">
         <f>C7-F3</f>
-        <v>48790.085017481098</v>
+        <v>8.1474094335128111</v>
       </c>
       <c r="K4" s="16">
         <f>C7+F3</f>
-        <v>52809.914982518902</v>
+        <v>9.8525905664871889</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7443,7 +7461,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>6</v>
@@ -7451,10 +7469,10 @@
     </row>
     <row r="6" spans="2:14" ht="15.75">
       <c r="B6" s="20" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
-        <v>8500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
@@ -7462,7 +7480,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>50800</v>
+        <v>9</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7491,7 +7509,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7511,34 +7529,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="3" spans="2:14" ht="15.75">
       <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="17">
-        <v>0.22</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="15" t="e">
         <f>C4*(SQRT(C6/C5))</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75">
@@ -7547,18 +7565,18 @@
       </c>
       <c r="C4" s="28">
         <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>0.27931903444745415</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="16" t="e">
         <f>C7-F3</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="K4" s="16" t="e">
         <f>C7+F3</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7572,7 +7590,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>6</v>
@@ -7582,17 +7600,17 @@
       <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="29" t="e">
+      <c r="C6" s="29">
         <f>C7*(1-C7)</f>
-        <v>#VALUE!</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75">
       <c r="B7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
+      <c r="C7" s="2">
+        <v>4</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -7623,16 +7641,16 @@
   </cols>
   <sheetData>
     <row r="13" spans="4:11" ht="26.25">
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7647,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7677,28 +7695,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -7719,27 +7737,37 @@
       <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:20" ht="15.75">
-      <c r="B3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.95</v>
+      </c>
       <c r="E3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>66.2</v>
+      </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.95</v>
+      </c>
       <c r="K3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="N3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2"/>
+      <c r="L3" s="2">
+        <v>66.2</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.97</v>
+      </c>
       <c r="Q3" s="20" t="s">
         <v>26</v>
       </c>
@@ -7747,40 +7775,40 @@
     </row>
     <row r="4" spans="2:20" ht="15.75">
       <c r="B4" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C4" s="30">
         <f>1-C3</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="33" t="e">
+      <c r="F4" s="33">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
-        <v>#DIV/0!</v>
+        <v>2.2857142857142909</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="23" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I4" s="30">
         <f>1-I3</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="33" t="e">
+      <c r="L4" s="33">
         <f>(L3-I8)/(I7/(SQRT(I6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>16</v>
+        <v>2.2857142857142909</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O4" s="30">
         <f>1-O3</f>
-        <v>1</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Q4" s="24" t="s">
         <v>35</v>
@@ -7792,40 +7820,40 @@
     </row>
     <row r="5" spans="2:20" ht="15.75">
       <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="31" t="e">
+        <v>53</v>
+      </c>
+      <c r="C5" s="31">
         <f>NORMSINV(C4+((1-C4)/2))</f>
-        <v>#NUM!</v>
+        <v>6.2706777943213846E-2</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="32" t="e">
+      <c r="F5" s="57">
         <f>IF(F4&gt;=0,2*(1-_xlfn.NORM.S.DIST(F4, TRUE)),2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
-        <v>#DIV/0!</v>
+        <v>2.2270978959232357E-2</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="28" t="e">
+        <v>54</v>
+      </c>
+      <c r="I5" s="28">
         <f>NORMSINV(1-I3)</f>
-        <v>#NUM!</v>
+        <v>-1.6448536269514715</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="34" t="e">
+      <c r="L5" s="34">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>1.1135489479616179E-2</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="28" t="e">
+        <v>54</v>
+      </c>
+      <c r="O5" s="28">
         <f>NORMSINV(O3)</f>
-        <v>#NUM!</v>
+        <v>1.8807936081512504</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>36</v>
@@ -7839,7 +7867,9 @@
       <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>64</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -7847,7 +7877,9 @@
       <c r="H6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>64</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -7866,12 +7898,16 @@
       <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>4.2</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>4.2</v>
+      </c>
       <c r="N7" s="26" t="s">
         <v>17</v>
       </c>
@@ -7884,12 +7920,16 @@
       <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>65</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>65</v>
+      </c>
       <c r="N8" s="26" t="s">
         <v>23</v>
       </c>
@@ -7919,7 +7959,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7948,28 +7988,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -7991,126 +8031,140 @@
     </row>
     <row r="3" spans="2:20" ht="15.75">
       <c r="B3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.95</v>
+      </c>
       <c r="E3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.95</v>
+      </c>
       <c r="K3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="N3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2"/>
+      <c r="L3" s="2">
+        <v>36.74</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.95</v>
+      </c>
       <c r="Q3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>36.74</v>
+      </c>
     </row>
     <row r="4" spans="2:20" ht="15.75">
-      <c r="B4" s="26" t="s">
-        <v>16</v>
+      <c r="B4" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="30">
         <f>1-C3</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="19" t="e">
+      <c r="F4" s="19">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
-        <v>#DIV/0!</v>
+        <v>2.3570226039551585</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I4" s="30">
         <f>1-I3</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="33" t="e">
+      <c r="L4" s="56">
         <f>(L3-I8)/(I7/SQRT(I6))</f>
-        <v>#DIV/0!</v>
+        <v>-6.519999999999996</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="O4" s="30">
         <f>1-O3</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="33" t="e">
+      <c r="R4" s="33">
         <f>(R3-O8)/(O7/SQRT(O6))</f>
-        <v>#DIV/0!</v>
+        <v>-6.519999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15.75">
       <c r="B5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="31" t="e">
+        <v>38</v>
+      </c>
+      <c r="C5" s="31">
         <f>_xlfn.T.INV(C4+((1-C4)/2),C6-1)</f>
-        <v>#NUM!</v>
+        <v>6.3028780966021908E-2</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="32" t="e">
+      <c r="F5" s="32">
         <f>IF(F4&gt;=0,2*(1-_xlfn.T.DIST(F4,C6-1, TRUE)),2*(_xlfn.T.DIST(F4,C6-1, TRUE)))</f>
-        <v>#DIV/0!</v>
+        <v>2.2462232199022436E-2</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="28" t="e">
+        <v>56</v>
+      </c>
+      <c r="I5" s="28">
         <f>_xlfn.T.INV(0.95,I6-1)</f>
-        <v>#NUM!</v>
+        <v>1.7108820799094284</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="34" t="e">
+      <c r="L5" s="34">
         <f>1-_xlfn.T.DIST(L4,I6-1, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>0.99999951878538884</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="28" t="e">
+        <v>56</v>
+      </c>
+      <c r="O5" s="28">
         <f>_xlfn.T.INV(O3,O6-1)</f>
-        <v>#NUM!</v>
+        <v>1.7108820799094284</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="32" t="e">
+      <c r="R5" s="32">
         <f>_xlfn.T.DIST(R4,O6-1, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>4.8121461111653765E-7</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15.75">
       <c r="B6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -8118,14 +8172,18 @@
       <c r="H6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>25</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="N6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
@@ -8135,18 +8193,24 @@
     </row>
     <row r="7" spans="2:20" ht="15.75">
       <c r="B7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.5</v>
+      </c>
       <c r="N7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T7" s="10" t="s">
         <v>6</v>
       </c>
@@ -8155,16 +8219,22 @@
       <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>40</v>
+      </c>
       <c r="N8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:20">
       <c r="G9" s="13"/>
@@ -8221,28 +8291,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="2:20" s="6" customFormat="1">
       <c r="B2" s="14"/>
@@ -8270,7 +8340,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="13"/>
@@ -8279,7 +8349,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="K3" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2"/>
       <c r="N3" s="37" t="s">
@@ -8287,7 +8357,7 @@
       </c>
       <c r="O3" s="2"/>
       <c r="Q3" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" s="2"/>
     </row>
@@ -8412,7 +8482,7 @@
     </row>
     <row r="7" spans="2:20" ht="15.75">
       <c r="B7" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="29">
         <f>C8*(1-C8)</f>
@@ -8420,14 +8490,14 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="29">
         <f>I8*(1-I8)</f>
         <v>0</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="29">
         <f>O8*(1-O8)</f>
@@ -8439,18 +8509,18 @@
     </row>
     <row r="8" spans="2:20" ht="15.75">
       <c r="B8" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2"/>
       <c r="N8" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2"/>
     </row>
